--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NetBeansProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815EA3CF-2C06-4742-80F6-B87913CB8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87174EF-16A6-45F2-A924-36978BCA19B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>September</t>
   </si>
@@ -106,6 +106,37 @@
   <si>
     <t>31/10/2021</t>
   </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Sprint 3 (Iteration 3)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sprint 3 complete</t>
+    </r>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Sprint 2 complete</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +146,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -148,8 +179,27 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +218,18 @@
         <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -181,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -203,10 +265,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,56 +496,121 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:CO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="4" max="40" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="4" max="40" width="2.88671875" customWidth="1"/>
+    <col min="41" max="171" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-    </row>
-    <row r="2" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+    </row>
+    <row r="2" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,26 +713,185 @@
       <c r="AH2" s="4">
         <v>1</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="4">
         <v>2</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="4">
         <v>3</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="4">
         <v>4</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="4">
         <v>5</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="4">
         <v>6</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AO2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>14</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>15</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>16</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>17</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>18</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>19</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>20</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>22</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>23</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>24</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>25</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>26</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>27</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>28</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>29</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>30</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BN2" s="4">
+        <v>3</v>
+      </c>
+      <c r="BO2" s="4">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="4">
+        <v>5</v>
+      </c>
+      <c r="BQ2" s="4">
+        <v>6</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>7</v>
+      </c>
+      <c r="BS2" s="4">
+        <v>8</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>9</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>10</v>
+      </c>
+      <c r="BV2" s="4">
+        <v>11</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>13</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>14</v>
+      </c>
+      <c r="BZ2" s="4">
+        <v>15</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>16</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>17</v>
+      </c>
+      <c r="CC2" s="4">
+        <v>18</v>
+      </c>
+      <c r="CD2" s="4">
+        <v>19</v>
+      </c>
+      <c r="CE2" s="4">
+        <v>20</v>
+      </c>
+      <c r="CF2" s="4">
+        <v>21</v>
+      </c>
+      <c r="CG2" s="4">
+        <v>22</v>
+      </c>
+      <c r="CH2" s="4">
+        <v>23</v>
+      </c>
+      <c r="CI2" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ2" s="4">
+        <v>25</v>
+      </c>
+      <c r="CK2" s="4">
+        <v>26</v>
+      </c>
+      <c r="CL2" s="4">
+        <v>27</v>
+      </c>
+      <c r="CM2" s="4">
+        <v>28</v>
+      </c>
+      <c r="CN2" s="4">
+        <v>29</v>
+      </c>
+      <c r="CO2" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,49 +902,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,7 +985,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -706,7 +1001,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -722,7 +1017,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -746,7 +1041,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -765,7 +1060,7 @@
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -777,7 +1072,7 @@
       </c>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -787,15 +1082,38 @@
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-    </row>
-    <row r="17" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+    </row>
+    <row r="17" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -810,8 +1128,33 @@
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
-    </row>
-    <row r="18" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+    </row>
+    <row r="18" spans="1:93" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -821,12 +1164,547 @@
       <c r="C18" s="11">
         <v>44479</v>
       </c>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+    </row>
+    <row r="19" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+    </row>
+    <row r="20" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+    </row>
+    <row r="21" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="18"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+    </row>
+    <row r="22" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44205</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="13"/>
+      <c r="BR22" s="13"/>
+      <c r="BS22" s="13"/>
+      <c r="BT22" s="13"/>
+      <c r="BU22" s="13"/>
+      <c r="BV22" s="13"/>
+      <c r="BW22" s="13"/>
+      <c r="BX22" s="13"/>
+      <c r="BY22" s="13"/>
+      <c r="BZ22" s="13"/>
+      <c r="CA22" s="13"/>
+      <c r="CB22" s="13"/>
+      <c r="CC22" s="13"/>
+      <c r="CD22" s="13"/>
+      <c r="CE22" s="13"/>
+      <c r="CF22" s="13"/>
+      <c r="CG22" s="13"/>
+      <c r="CH22" s="13"/>
+      <c r="CI22" s="13"/>
+      <c r="CJ22" s="13"/>
+      <c r="CK22" s="13"/>
+      <c r="CL22" s="13"/>
+      <c r="CM22" s="13"/>
+      <c r="CN22" s="13"/>
+      <c r="CO22" s="13"/>
+    </row>
+    <row r="23" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44205</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44325</v>
+      </c>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="13"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="13"/>
+      <c r="BW23" s="13"/>
+      <c r="BX23" s="13"/>
+      <c r="BY23" s="13"/>
+      <c r="BZ23" s="13"/>
+      <c r="CA23" s="13"/>
+      <c r="CB23" s="13"/>
+      <c r="CC23" s="13"/>
+      <c r="CD23" s="13"/>
+      <c r="CE23" s="13"/>
+      <c r="CF23" s="13"/>
+      <c r="CG23" s="13"/>
+      <c r="CH23" s="13"/>
+      <c r="CI23" s="13"/>
+      <c r="CJ23" s="13"/>
+      <c r="CK23" s="13"/>
+      <c r="CL23" s="13"/>
+      <c r="CM23" s="13"/>
+      <c r="CN23" s="13"/>
+      <c r="CO23" s="13"/>
+    </row>
+    <row r="24" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44356</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44478</v>
+      </c>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
+      <c r="BY24" s="10"/>
+      <c r="BZ24" s="10"/>
+      <c r="CA24" s="10"/>
+      <c r="CB24" s="10"/>
+      <c r="CC24" s="10"/>
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="10"/>
+      <c r="CF24" s="10"/>
+      <c r="CG24" s="10"/>
+      <c r="CH24" s="10"/>
+      <c r="CI24" s="13"/>
+      <c r="CJ24" s="13"/>
+      <c r="CK24" s="13"/>
+      <c r="CL24" s="13"/>
+      <c r="CM24" s="13"/>
+      <c r="CN24" s="13"/>
+      <c r="CO24" s="13"/>
+    </row>
+    <row r="25" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44478</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL25" s="13"/>
+      <c r="BM25" s="13"/>
+      <c r="BN25" s="13"/>
+      <c r="BO25" s="13"/>
+      <c r="BP25" s="13"/>
+      <c r="BQ25" s="13"/>
+      <c r="BR25" s="13"/>
+      <c r="BS25" s="13"/>
+      <c r="BT25" s="13"/>
+      <c r="BU25" s="13"/>
+      <c r="BV25" s="13"/>
+      <c r="BW25" s="13"/>
+      <c r="BX25" s="13"/>
+      <c r="BY25" s="13"/>
+      <c r="BZ25" s="13"/>
+      <c r="CA25" s="13"/>
+      <c r="CB25" s="13"/>
+      <c r="CC25" s="13"/>
+      <c r="CD25" s="13"/>
+      <c r="CE25" s="13"/>
+      <c r="CF25" s="13"/>
+      <c r="CG25" s="13"/>
+      <c r="CH25" s="10"/>
+      <c r="CI25" s="10"/>
+      <c r="CJ25" s="10"/>
+      <c r="CK25" s="10"/>
+      <c r="CL25" s="10"/>
+      <c r="CM25" s="10"/>
+      <c r="CN25" s="10"/>
+      <c r="CO25" s="10"/>
+    </row>
+    <row r="26" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL26" s="13"/>
+      <c r="BM26" s="13"/>
+      <c r="BN26" s="13"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13"/>
+      <c r="BS26" s="13"/>
+      <c r="BT26" s="13"/>
+      <c r="BU26" s="13"/>
+      <c r="BV26" s="13"/>
+      <c r="BW26" s="13"/>
+      <c r="BX26" s="13"/>
+      <c r="BY26" s="13"/>
+      <c r="BZ26" s="13"/>
+      <c r="CA26" s="13"/>
+      <c r="CB26" s="13"/>
+      <c r="CC26" s="13"/>
+      <c r="CD26" s="13"/>
+      <c r="CE26" s="13"/>
+      <c r="CF26" s="13"/>
+      <c r="CG26" s="13"/>
+      <c r="CH26" s="13"/>
+      <c r="CI26" s="13"/>
+      <c r="CJ26" s="13"/>
+      <c r="CK26" s="13"/>
+      <c r="CL26" s="13"/>
+      <c r="CM26" s="13"/>
+      <c r="CN26" s="13"/>
+      <c r="CO26" s="12"/>
+    </row>
+    <row r="27" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL27" s="13"/>
+      <c r="BM27" s="13"/>
+      <c r="BN27" s="13"/>
+      <c r="BO27" s="13"/>
+      <c r="BP27" s="13"/>
+      <c r="BQ27" s="13"/>
+      <c r="BR27" s="13"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="13"/>
+      <c r="BU27" s="13"/>
+      <c r="BV27" s="13"/>
+      <c r="BW27" s="13"/>
+      <c r="BX27" s="13"/>
+      <c r="BY27" s="13"/>
+      <c r="BZ27" s="13"/>
+      <c r="CA27" s="13"/>
+      <c r="CB27" s="13"/>
+      <c r="CC27" s="13"/>
+      <c r="CD27" s="13"/>
+      <c r="CE27" s="13"/>
+      <c r="CF27" s="13"/>
+      <c r="CG27" s="13"/>
+      <c r="CH27" s="13"/>
+      <c r="CI27" s="13"/>
+      <c r="CJ27" s="13"/>
+      <c r="CK27" s="13"/>
+      <c r="CL27" s="13"/>
+      <c r="CM27" s="13"/>
+      <c r="CN27" s="13"/>
+      <c r="CO27" s="13"/>
+    </row>
+    <row r="28" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL28" s="13"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="13"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="13"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="13"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="13"/>
+      <c r="BU28" s="13"/>
+      <c r="BV28" s="13"/>
+      <c r="BW28" s="13"/>
+      <c r="BX28" s="13"/>
+      <c r="BY28" s="13"/>
+      <c r="BZ28" s="13"/>
+      <c r="CA28" s="13"/>
+      <c r="CB28" s="13"/>
+      <c r="CC28" s="13"/>
+      <c r="CD28" s="13"/>
+      <c r="CE28" s="13"/>
+      <c r="CF28" s="13"/>
+      <c r="CG28" s="13"/>
+      <c r="CH28" s="13"/>
+      <c r="CI28" s="13"/>
+      <c r="CJ28" s="13"/>
+      <c r="CK28" s="13"/>
+      <c r="CL28" s="13"/>
+      <c r="CM28" s="13"/>
+      <c r="CN28" s="13"/>
+      <c r="CO28" s="13"/>
+    </row>
+    <row r="29" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL29" s="13"/>
+      <c r="BM29" s="13"/>
+      <c r="BN29" s="13"/>
+      <c r="BO29" s="13"/>
+      <c r="BP29" s="13"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="13"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="13"/>
+      <c r="BU29" s="13"/>
+      <c r="BV29" s="13"/>
+      <c r="BW29" s="13"/>
+      <c r="BX29" s="13"/>
+      <c r="BY29" s="13"/>
+      <c r="BZ29" s="13"/>
+      <c r="CA29" s="13"/>
+      <c r="CB29" s="13"/>
+      <c r="CC29" s="13"/>
+      <c r="CD29" s="13"/>
+      <c r="CE29" s="13"/>
+      <c r="CF29" s="13"/>
+      <c r="CG29" s="13"/>
+      <c r="CH29" s="13"/>
+      <c r="CI29" s="13"/>
+      <c r="CJ29" s="13"/>
+      <c r="CK29" s="13"/>
+      <c r="CL29" s="13"/>
+      <c r="CM29" s="13"/>
+      <c r="CN29" s="13"/>
+      <c r="CO29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:AG1"/>
+    <mergeCell ref="AH1:BK1"/>
+    <mergeCell ref="BL1:CO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Springs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDB4BE-598B-4E96-8879-FC3E83BB6CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F966B19-48A7-4870-8FA1-14965C9F14DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,27 +378,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -484,6 +463,27 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1009,8 @@
   </sheetPr>
   <dimension ref="A1:CQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1021,327 +1021,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="20" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="20" t="s">
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="22"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="64"/>
     </row>
     <row r="2" spans="1:93" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="20">
         <v>20</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="21">
         <v>21</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="21">
         <v>22</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="21">
         <v>23</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="21">
         <v>24</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="21">
         <v>25</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="21">
         <v>26</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="21">
         <v>27</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="21">
         <v>28</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="21">
         <v>29</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="22">
         <v>30</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="23">
         <v>1</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="24">
         <v>2</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="24">
         <v>3</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="24">
         <v>4</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="24">
         <v>6</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="24">
         <v>7</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="24">
         <v>8</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="24">
         <v>9</v>
       </c>
-      <c r="X2" s="31">
+      <c r="X2" s="24">
         <v>10</v>
       </c>
-      <c r="Y2" s="31">
+      <c r="Y2" s="24">
         <v>11</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="24">
         <v>12</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="AA2" s="24">
         <v>13</v>
       </c>
-      <c r="AB2" s="31">
+      <c r="AB2" s="24">
         <v>14</v>
       </c>
-      <c r="AC2" s="31">
+      <c r="AC2" s="24">
         <v>15</v>
       </c>
-      <c r="AD2" s="31">
+      <c r="AD2" s="24">
         <v>16</v>
       </c>
-      <c r="AE2" s="31">
+      <c r="AE2" s="24">
         <v>17</v>
       </c>
-      <c r="AF2" s="31">
+      <c r="AF2" s="24">
         <v>18</v>
       </c>
-      <c r="AG2" s="31">
+      <c r="AG2" s="24">
         <v>19</v>
       </c>
-      <c r="AH2" s="31">
+      <c r="AH2" s="24">
         <v>20</v>
       </c>
-      <c r="AI2" s="31">
+      <c r="AI2" s="24">
         <v>21</v>
       </c>
-      <c r="AJ2" s="31">
+      <c r="AJ2" s="24">
         <v>22</v>
       </c>
-      <c r="AK2" s="31">
+      <c r="AK2" s="24">
         <v>23</v>
       </c>
-      <c r="AL2" s="31">
+      <c r="AL2" s="24">
         <v>24</v>
       </c>
-      <c r="AM2" s="31">
+      <c r="AM2" s="24">
         <v>25</v>
       </c>
-      <c r="AN2" s="31">
+      <c r="AN2" s="24">
         <v>26</v>
       </c>
-      <c r="AO2" s="31">
+      <c r="AO2" s="24">
         <v>27</v>
       </c>
-      <c r="AP2" s="31">
+      <c r="AP2" s="24">
         <v>28</v>
       </c>
-      <c r="AQ2" s="31">
+      <c r="AQ2" s="24">
         <v>29</v>
       </c>
-      <c r="AR2" s="31">
+      <c r="AR2" s="24">
         <v>30</v>
       </c>
-      <c r="AS2" s="32">
+      <c r="AS2" s="25">
         <v>31</v>
       </c>
-      <c r="AT2" s="30">
+      <c r="AT2" s="23">
         <v>1</v>
       </c>
-      <c r="AU2" s="31">
+      <c r="AU2" s="24">
         <v>2</v>
       </c>
-      <c r="AV2" s="31">
+      <c r="AV2" s="24">
         <v>3</v>
       </c>
-      <c r="AW2" s="31">
+      <c r="AW2" s="24">
         <v>4</v>
       </c>
-      <c r="AX2" s="31">
+      <c r="AX2" s="24">
         <v>5</v>
       </c>
-      <c r="AY2" s="31">
+      <c r="AY2" s="24">
         <v>6</v>
       </c>
-      <c r="AZ2" s="31">
+      <c r="AZ2" s="24">
         <v>7</v>
       </c>
-      <c r="BA2" s="31">
+      <c r="BA2" s="24">
         <v>8</v>
       </c>
-      <c r="BB2" s="31">
+      <c r="BB2" s="24">
         <v>9</v>
       </c>
-      <c r="BC2" s="31">
+      <c r="BC2" s="24">
         <v>10</v>
       </c>
-      <c r="BD2" s="31">
+      <c r="BD2" s="24">
         <v>11</v>
       </c>
-      <c r="BE2" s="31">
+      <c r="BE2" s="24">
         <v>12</v>
       </c>
-      <c r="BF2" s="31">
+      <c r="BF2" s="24">
         <v>13</v>
       </c>
-      <c r="BG2" s="31">
+      <c r="BG2" s="24">
         <v>14</v>
       </c>
-      <c r="BH2" s="31">
+      <c r="BH2" s="24">
         <v>15</v>
       </c>
-      <c r="BI2" s="31">
+      <c r="BI2" s="24">
         <v>16</v>
       </c>
-      <c r="BJ2" s="31">
+      <c r="BJ2" s="24">
         <v>17</v>
       </c>
-      <c r="BK2" s="31">
+      <c r="BK2" s="24">
         <v>18</v>
       </c>
-      <c r="BL2" s="31">
+      <c r="BL2" s="24">
         <v>19</v>
       </c>
-      <c r="BM2" s="31">
+      <c r="BM2" s="24">
         <v>20</v>
       </c>
-      <c r="BN2" s="31">
+      <c r="BN2" s="24">
         <v>21</v>
       </c>
-      <c r="BO2" s="31">
+      <c r="BO2" s="24">
         <v>22</v>
       </c>
-      <c r="BP2" s="31">
+      <c r="BP2" s="24">
         <v>23</v>
       </c>
-      <c r="BQ2" s="31">
+      <c r="BQ2" s="24">
         <v>24</v>
       </c>
-      <c r="BR2" s="31">
+      <c r="BR2" s="24">
         <v>25</v>
       </c>
-      <c r="BS2" s="31">
+      <c r="BS2" s="24">
         <v>26</v>
       </c>
-      <c r="BT2" s="31">
+      <c r="BT2" s="24">
         <v>27</v>
       </c>
-      <c r="BU2" s="31">
+      <c r="BU2" s="24">
         <v>28</v>
       </c>
-      <c r="BV2" s="31">
+      <c r="BV2" s="24">
         <v>29</v>
       </c>
-      <c r="BW2" s="31">
+      <c r="BW2" s="24">
         <v>30</v>
       </c>
-      <c r="BX2" s="32">
+      <c r="BX2" s="25">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:93" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="52">
         <v>44732</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="39">
         <v>44742</v>
       </c>
       <c r="D3" s="2"/>
@@ -1376,26 +1376,26 @@
       <c r="AG3" s="17"/>
     </row>
     <row r="4" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="55">
         <v>44732</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="54">
         <v>44742</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
@@ -1417,13 +1417,13 @@
       <c r="AG4" s="17"/>
     </row>
     <row r="5" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="57">
         <v>44741</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="54">
         <v>44742</v>
       </c>
       <c r="D5" s="3"/>
@@ -1435,8 +1435,8 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -1458,13 +1458,13 @@
       <c r="AG5" s="17"/>
     </row>
     <row r="6" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="57">
         <v>44740</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="56">
         <v>44741</v>
       </c>
       <c r="D6" s="3"/>
@@ -1475,8 +1475,8 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
@@ -1499,13 +1499,13 @@
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <v>44741</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="54">
         <v>44742</v>
       </c>
       <c r="D7" s="3"/>
@@ -1517,8 +1517,8 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -1540,13 +1540,13 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="57">
         <v>44741</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="54">
         <v>44742</v>
       </c>
       <c r="D8" s="3"/>
@@ -1558,8 +1558,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -1581,13 +1581,13 @@
       <c r="AG8" s="17"/>
     </row>
     <row r="9" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="57">
         <v>44741</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="54">
         <v>44742</v>
       </c>
       <c r="D9" s="3"/>
@@ -1600,7 +1600,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -1622,13 +1622,13 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="1:93" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="57">
         <v>44741</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="51">
         <v>44742</v>
       </c>
       <c r="N10" s="18" t="s">
@@ -1636,16 +1636,16 @@
       </c>
     </row>
     <row r="11" spans="1:93" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="53">
         <v>44743</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="39">
         <v>44772</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="26"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1676,18 +1676,19 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1713,23 +1714,24 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
     </row>
     <row r="13" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -1750,13 +1752,14 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
     </row>
     <row r="14" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="51"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
       <c r="E14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1768,19 +1771,19 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
@@ -1788,13 +1791,14 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
     </row>
     <row r="15" spans="1:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1817,14 +1821,15 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
       <c r="BY15" s="16"/>
       <c r="BZ15" s="16"/>
       <c r="CA15" s="16"/>
@@ -1844,11 +1849,11 @@
       <c r="CO15" s="16"/>
     </row>
     <row r="16" spans="1:93" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
@@ -1858,10 +1863,9 @@
       <c r="AO16" s="16"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
-      <c r="AR16" s="18" t="s">
+      <c r="AS16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AS16" s="16"/>
       <c r="AT16" s="16"/>
       <c r="AU16" s="16"/>
       <c r="AV16" s="16"/>
@@ -1912,13 +1916,13 @@
       <c r="CO16" s="16"/>
     </row>
     <row r="17" spans="1:95" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="38">
         <v>44774</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="39">
         <v>44804</v>
       </c>
       <c r="AI17" s="17"/>
@@ -1931,7 +1935,7 @@
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
-      <c r="AS17" s="1"/>
+      <c r="AS17" s="19"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
@@ -1982,11 +1986,11 @@
       <c r="CO17" s="16"/>
     </row>
     <row r="18" spans="1:95" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
@@ -1999,11 +2003,11 @@
       <c r="AP18" s="16"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
@@ -2050,11 +2054,11 @@
       <c r="CO18" s="16"/>
     </row>
     <row r="19" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
@@ -2072,11 +2076,11 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
@@ -2118,11 +2122,11 @@
       <c r="CO19" s="16"/>
     </row>
     <row r="20" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
@@ -2145,19 +2149,19 @@
       <c r="AZ20" s="3"/>
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="37"/>
-      <c r="BL20" s="37"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="37"/>
-      <c r="BO20" s="37"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
       <c r="BP20" s="3"/>
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
@@ -2186,11 +2190,11 @@
       <c r="CO20" s="16"/>
     </row>
     <row r="21" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
@@ -2225,16 +2229,16 @@
       <c r="BL21" s="3"/>
       <c r="BM21" s="3"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="37"/>
-      <c r="BP21" s="37"/>
-      <c r="BQ21" s="37"/>
-      <c r="BR21" s="37"/>
-      <c r="BS21" s="37"/>
-      <c r="BT21" s="37"/>
-      <c r="BU21" s="37"/>
-      <c r="BV21" s="37"/>
-      <c r="BW21" s="37"/>
-      <c r="BX21" s="37"/>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="30"/>
+      <c r="BQ21" s="30"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
+      <c r="BW21" s="30"/>
+      <c r="BX21" s="30"/>
       <c r="BY21" s="16"/>
       <c r="BZ21" s="16"/>
       <c r="CA21" s="16"/>
@@ -2254,11 +2258,11 @@
       <c r="CO21" s="16"/>
     </row>
     <row r="22" spans="1:95" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
@@ -3817,12 +3821,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AT1:BX1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="O1:AS1"/>
-    <mergeCell ref="AT1:BX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
